--- a/pegawai.xlsx
+++ b/pegawai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\punx\dinsosp3a-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE11F855-2E37-442F-906B-09A77D479F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D791D-1B48-4D41-B718-63B606FB04A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,9 +621,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,15 +931,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -948,6 +949,9 @@
       <c r="B1" s="1">
         <v>24632</v>
       </c>
+      <c r="C1" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -956,6 +960,9 @@
       <c r="B2" s="1">
         <v>24837</v>
       </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -964,7 +971,9 @@
       <c r="B3" s="1">
         <v>24837</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -973,6 +982,9 @@
       <c r="B4" s="1">
         <v>24837</v>
       </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -981,7 +993,9 @@
       <c r="B5" s="1">
         <v>24965</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -990,7 +1004,9 @@
       <c r="B6" s="1">
         <v>25002</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -999,7 +1015,9 @@
       <c r="B7" s="1">
         <v>25019</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1008,7 +1026,9 @@
       <c r="B8" s="1">
         <v>25101</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1017,7 +1037,9 @@
       <c r="B9" s="1">
         <v>25201</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1026,7 +1048,9 @@
       <c r="B10" s="1">
         <v>25249</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1035,7 +1059,9 @@
       <c r="B11" s="1">
         <v>25301</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1044,7 +1070,9 @@
       <c r="B12" s="1">
         <v>25383</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1053,7 +1081,9 @@
       <c r="B13" s="1">
         <v>25383</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1062,7 +1092,9 @@
       <c r="B14" s="1">
         <v>25393</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1071,7 +1103,9 @@
       <c r="B15" s="1">
         <v>25450</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1080,7 +1114,9 @@
       <c r="B16" s="1">
         <v>25455</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1089,7 +1125,9 @@
       <c r="B17" s="1">
         <v>25470</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1098,7 +1136,9 @@
       <c r="B18" s="1">
         <v>25478</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1107,7 +1147,9 @@
       <c r="B19" s="1">
         <v>25557</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1116,7 +1158,9 @@
       <c r="B20" s="1">
         <v>25568</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1125,7 +1169,9 @@
       <c r="B21" s="1">
         <v>25572</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1134,7 +1180,9 @@
       <c r="B22" s="1">
         <v>25622</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1143,7 +1191,9 @@
       <c r="B23" s="1">
         <v>25662</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1152,7 +1202,9 @@
       <c r="B24" s="1">
         <v>25679</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1161,7 +1213,9 @@
       <c r="B25" s="1">
         <v>25790</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1170,7 +1224,9 @@
       <c r="B26" s="1">
         <v>25806</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1179,7 +1235,9 @@
       <c r="B27" s="1">
         <v>25835</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1188,7 +1246,9 @@
       <c r="B28" s="1">
         <v>25844</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1197,7 +1257,9 @@
       <c r="B29" s="1">
         <v>25882</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1206,7 +1268,9 @@
       <c r="B30" s="1">
         <v>25933</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1215,7 +1279,9 @@
       <c r="B31" s="1">
         <v>25934</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1224,7 +1290,9 @@
       <c r="B32" s="1">
         <v>25942</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1233,7 +1301,9 @@
       <c r="B33" s="1">
         <v>26135</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1242,7 +1312,9 @@
       <c r="B34" s="1">
         <v>26202</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1251,7 +1323,9 @@
       <c r="B35" s="1">
         <v>26287</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1260,7 +1334,9 @@
       <c r="B36" s="1">
         <v>26402</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -1269,7 +1345,9 @@
       <c r="B37" s="1">
         <v>26452</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -1278,7 +1356,9 @@
       <c r="B38" s="1">
         <v>26478</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -1287,7 +1367,9 @@
       <c r="B39" s="1">
         <v>26513</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -1296,7 +1378,9 @@
       <c r="B40" s="1">
         <v>26537</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -1305,7 +1389,9 @@
       <c r="B41" s="1">
         <v>26615</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -1314,7 +1400,9 @@
       <c r="B42" s="1">
         <v>26622</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -1323,7 +1411,9 @@
       <c r="B43" s="1">
         <v>26742</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1332,7 +1422,9 @@
       <c r="B44" s="1">
         <v>26779</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -1341,7 +1433,9 @@
       <c r="B45" s="1">
         <v>26872</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -1350,7 +1444,9 @@
       <c r="B46" s="1">
         <v>26890</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1359,7 +1455,9 @@
       <c r="B47" s="1">
         <v>26932</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -1368,7 +1466,9 @@
       <c r="B48" s="1">
         <v>27051</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -1377,7 +1477,9 @@
       <c r="B49" s="1">
         <v>27064</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -1386,7 +1488,9 @@
       <c r="B50" s="1">
         <v>27253</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -1395,7 +1499,9 @@
       <c r="B51" s="1">
         <v>27409</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -1404,7 +1510,9 @@
       <c r="B52" s="1">
         <v>27743</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -1413,7 +1521,9 @@
       <c r="B53" s="1">
         <v>27848</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -1422,7 +1532,9 @@
       <c r="B54" s="1">
         <v>28218</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -1431,7 +1543,9 @@
       <c r="B55" s="1">
         <v>28342</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -1440,7 +1554,9 @@
       <c r="B56" s="1">
         <v>28491</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -1449,7 +1565,9 @@
       <c r="B57" s="1">
         <v>28753</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -1458,7 +1576,9 @@
       <c r="B58" s="1">
         <v>28770</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -1467,7 +1587,9 @@
       <c r="B59" s="1">
         <v>28816</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -1476,7 +1598,9 @@
       <c r="B60" s="1">
         <v>28834</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -1485,7 +1609,9 @@
       <c r="B61" s="1">
         <v>29084</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -1494,7 +1620,9 @@
       <c r="B62" s="1">
         <v>29477</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -1503,7 +1631,9 @@
       <c r="B63" s="1">
         <v>29640</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -1512,7 +1642,9 @@
       <c r="B64" s="1">
         <v>29874</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -1521,7 +1653,9 @@
       <c r="B65" s="1">
         <v>30107</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -1530,7 +1664,9 @@
       <c r="B66" s="1">
         <v>30176</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -1539,7 +1675,9 @@
       <c r="B67" s="1">
         <v>30533</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -1548,7 +1686,9 @@
       <c r="B68" s="1">
         <v>30666</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -1557,7 +1697,9 @@
       <c r="B69" s="1">
         <v>31209</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -1566,7 +1708,9 @@
       <c r="B70" s="1">
         <v>24892</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -1575,7 +1719,9 @@
       <c r="B71" s="1">
         <v>32988</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -1584,7 +1730,9 @@
       <c r="B72" s="1">
         <v>32139</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -1593,7 +1741,9 @@
       <c r="B73" s="1">
         <v>31744</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -1602,7 +1752,9 @@
       <c r="B74" s="1">
         <v>30497</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -1611,7 +1763,9 @@
       <c r="B75" s="1">
         <v>28674</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -1620,7 +1774,9 @@
       <c r="B76" s="1">
         <v>32038</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -1629,7 +1785,9 @@
       <c r="B77" s="1">
         <v>36036</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -1638,7 +1796,9 @@
       <c r="B78" s="1">
         <v>24837</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -1647,7 +1807,9 @@
       <c r="B79" s="1">
         <v>34966</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -1656,7 +1818,9 @@
       <c r="B80" s="1">
         <v>30425</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -1665,7 +1829,9 @@
       <c r="B81" s="1">
         <v>27671</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -1674,7 +1840,9 @@
       <c r="B82" s="1">
         <v>27901</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -1683,7 +1851,9 @@
       <c r="B83" s="1">
         <v>27602</v>
       </c>
-      <c r="C83" s="1"/>
+      <c r="C83" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -1692,7 +1862,9 @@
       <c r="B84" s="1">
         <v>28549</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -1701,7 +1873,9 @@
       <c r="B85" s="1">
         <v>33735</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -1710,7 +1884,9 @@
       <c r="B86" s="1">
         <v>32277</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -1719,7 +1895,9 @@
       <c r="B87" s="1">
         <v>33656</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -1728,7 +1906,9 @@
       <c r="B88" s="1">
         <v>31968</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -1737,7 +1917,9 @@
       <c r="B89" s="1">
         <v>32254</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -1746,7 +1928,9 @@
       <c r="B90" s="1">
         <v>26125</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -1755,7 +1939,9 @@
       <c r="B91" s="1">
         <v>33972</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="C91" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -1764,7 +1950,9 @@
       <c r="B92" s="1">
         <v>30027</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -1773,7 +1961,9 @@
       <c r="B93" s="1">
         <v>32877</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -1782,7 +1972,9 @@
       <c r="B94" s="1">
         <v>34289</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -1791,7 +1983,9 @@
       <c r="B95" s="1">
         <v>34967</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -1800,7 +1994,9 @@
       <c r="B96" s="1">
         <v>34393</v>
       </c>
-      <c r="C96" s="1"/>
+      <c r="C96" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -1809,7 +2005,9 @@
       <c r="B97" s="1">
         <v>34787</v>
       </c>
-      <c r="C97" s="1"/>
+      <c r="C97" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -1818,7 +2016,9 @@
       <c r="B98" s="1">
         <v>36145</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -1827,7 +2027,9 @@
       <c r="B99" s="1">
         <v>29115</v>
       </c>
-      <c r="C99" s="1"/>
+      <c r="C99" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -1836,7 +2038,9 @@
       <c r="B100" s="1">
         <v>30834</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -1845,7 +2049,9 @@
       <c r="B101" s="1">
         <v>32403</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
@@ -1854,7 +2060,9 @@
       <c r="B102" s="1">
         <v>33345</v>
       </c>
-      <c r="C102" s="1"/>
+      <c r="C102" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -1863,7 +2071,9 @@
       <c r="B103" s="1">
         <v>33194</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
@@ -1872,7 +2082,9 @@
       <c r="B104" s="1">
         <v>26387</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -1881,7 +2093,9 @@
       <c r="B105" s="1">
         <v>28863</v>
       </c>
-      <c r="C105" s="1"/>
+      <c r="C105" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -1890,7 +2104,9 @@
       <c r="B106" s="1">
         <v>26226</v>
       </c>
-      <c r="C106" s="1"/>
+      <c r="C106" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -1899,7 +2115,9 @@
       <c r="B107" s="1">
         <v>26937</v>
       </c>
-      <c r="C107" s="1"/>
+      <c r="C107" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -1908,7 +2126,9 @@
       <c r="B108" s="1">
         <v>29536</v>
       </c>
-      <c r="C108" s="1"/>
+      <c r="C108" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -1917,7 +2137,9 @@
       <c r="B109" s="1">
         <v>29068</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -1926,7 +2148,9 @@
       <c r="B110" s="1">
         <v>29559</v>
       </c>
-      <c r="C110" s="1"/>
+      <c r="C110" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -1935,7 +2159,9 @@
       <c r="B111" s="1">
         <v>30093</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
@@ -1944,7 +2170,9 @@
       <c r="B112" s="1">
         <v>33126</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
@@ -1953,7 +2181,9 @@
       <c r="B113" s="1">
         <v>26110</v>
       </c>
-      <c r="C113" s="1"/>
+      <c r="C113" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
@@ -1962,7 +2192,9 @@
       <c r="B114" s="1">
         <v>31508</v>
       </c>
-      <c r="C114" s="1"/>
+      <c r="C114" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -1971,7 +2203,9 @@
       <c r="B115" s="1">
         <v>31674</v>
       </c>
-      <c r="C115" s="1"/>
+      <c r="C115" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
@@ -1980,7 +2214,9 @@
       <c r="B116" s="1">
         <v>27317</v>
       </c>
-      <c r="C116" s="1"/>
+      <c r="C116" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
@@ -1989,7 +2225,9 @@
       <c r="B117" s="1">
         <v>28771</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
@@ -1998,7 +2236,9 @@
       <c r="B118" s="1">
         <v>32367</v>
       </c>
-      <c r="C118" s="1"/>
+      <c r="C118" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
@@ -2007,7 +2247,9 @@
       <c r="B119" s="1">
         <v>27142</v>
       </c>
-      <c r="C119" s="1"/>
+      <c r="C119" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
@@ -2016,7 +2258,9 @@
       <c r="B120" s="1">
         <v>33141</v>
       </c>
-      <c r="C120" s="1"/>
+      <c r="C120" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
@@ -2025,7 +2269,9 @@
       <c r="B121" s="1">
         <v>35134</v>
       </c>
-      <c r="C121" s="1"/>
+      <c r="C121" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -2034,7 +2280,9 @@
       <c r="B122" s="1">
         <v>33881</v>
       </c>
-      <c r="C122" s="1"/>
+      <c r="C122" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -2043,7 +2291,9 @@
       <c r="B123" s="1">
         <v>29958</v>
       </c>
-      <c r="C123" s="1"/>
+      <c r="C123" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -2052,7 +2302,9 @@
       <c r="B124" s="1">
         <v>32326</v>
       </c>
-      <c r="C124" s="1"/>
+      <c r="C124" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
@@ -2061,7 +2313,9 @@
       <c r="B125" s="1">
         <v>30915</v>
       </c>
-      <c r="C125" s="1"/>
+      <c r="C125" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
@@ -2070,7 +2324,9 @@
       <c r="B126" s="1">
         <v>29968</v>
       </c>
-      <c r="C126" s="1"/>
+      <c r="C126" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
@@ -2079,7 +2335,9 @@
       <c r="B127" s="1">
         <v>31610</v>
       </c>
-      <c r="C127" s="1"/>
+      <c r="C127" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
@@ -2088,7 +2346,9 @@
       <c r="B128" s="1">
         <v>29262</v>
       </c>
-      <c r="C128" s="1"/>
+      <c r="C128" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
@@ -2097,7 +2357,9 @@
       <c r="B129" s="1">
         <v>30564</v>
       </c>
-      <c r="C129" s="1"/>
+      <c r="C129" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
@@ -2106,7 +2368,9 @@
       <c r="B130" s="1">
         <v>32768</v>
       </c>
-      <c r="C130" s="1"/>
+      <c r="C130" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
@@ -2115,7 +2379,9 @@
       <c r="B131" s="1">
         <v>25910</v>
       </c>
-      <c r="C131" s="1"/>
+      <c r="C131" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
@@ -2124,7 +2390,9 @@
       <c r="B132" s="1">
         <v>35271</v>
       </c>
-      <c r="C132" s="1"/>
+      <c r="C132" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
@@ -2133,7 +2401,9 @@
       <c r="B133" s="1">
         <v>30138</v>
       </c>
-      <c r="C133" s="1"/>
+      <c r="C133" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -2142,7 +2412,9 @@
       <c r="B134" s="1">
         <v>31976</v>
       </c>
-      <c r="C134" s="1"/>
+      <c r="C134" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -2151,7 +2423,9 @@
       <c r="B135" s="1">
         <v>31858</v>
       </c>
-      <c r="C135" s="1"/>
+      <c r="C135" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
@@ -2160,7 +2434,9 @@
       <c r="B136" s="1">
         <v>25984</v>
       </c>
-      <c r="C136" s="1"/>
+      <c r="C136" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -2169,7 +2445,9 @@
       <c r="B137" s="1">
         <v>30809</v>
       </c>
-      <c r="C137" s="1"/>
+      <c r="C137" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
@@ -2178,7 +2456,9 @@
       <c r="B138" s="1">
         <v>29328</v>
       </c>
-      <c r="C138" s="1"/>
+      <c r="C138" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
@@ -2187,7 +2467,9 @@
       <c r="B139" s="1">
         <v>32718</v>
       </c>
-      <c r="C139" s="1"/>
+      <c r="C139" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
@@ -2196,7 +2478,9 @@
       <c r="B140" s="1">
         <v>32264</v>
       </c>
-      <c r="C140" s="1"/>
+      <c r="C140" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -2205,7 +2489,9 @@
       <c r="B141" s="1">
         <v>33194</v>
       </c>
-      <c r="C141" s="1"/>
+      <c r="C141" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
@@ -2214,7 +2500,9 @@
       <c r="B142" s="1">
         <v>32966</v>
       </c>
-      <c r="C142" s="1"/>
+      <c r="C142" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
@@ -2223,7 +2511,9 @@
       <c r="B143" s="1">
         <v>30033</v>
       </c>
-      <c r="C143" s="1"/>
+      <c r="C143" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
@@ -2232,7 +2522,9 @@
       <c r="B144" s="1">
         <v>35122</v>
       </c>
-      <c r="C144" s="1"/>
+      <c r="C144" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
@@ -2241,7 +2533,9 @@
       <c r="B145" s="1">
         <v>35667</v>
       </c>
-      <c r="C145" s="1"/>
+      <c r="C145" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
@@ -2250,7 +2544,9 @@
       <c r="B146" s="1">
         <v>34331</v>
       </c>
-      <c r="C146" s="1"/>
+      <c r="C146" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
@@ -2259,7 +2555,9 @@
       <c r="B147" s="1">
         <v>36828</v>
       </c>
-      <c r="C147" s="1"/>
+      <c r="C147" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
@@ -2268,7 +2566,9 @@
       <c r="B148" s="1">
         <v>31852</v>
       </c>
-      <c r="C148" s="1"/>
+      <c r="C148" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
@@ -2277,7 +2577,9 @@
       <c r="B149" s="1">
         <v>33686</v>
       </c>
-      <c r="C149" s="1"/>
+      <c r="C149" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
@@ -2286,7 +2588,9 @@
       <c r="B150" s="1">
         <v>29824</v>
       </c>
-      <c r="C150" s="1"/>
+      <c r="C150" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
@@ -2295,7 +2599,9 @@
       <c r="B151" s="1">
         <v>34868</v>
       </c>
-      <c r="C151" s="1"/>
+      <c r="C151" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
@@ -2304,7 +2610,9 @@
       <c r="B152" s="1">
         <v>31596</v>
       </c>
-      <c r="C152" s="1"/>
+      <c r="C152" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
@@ -2313,7 +2621,9 @@
       <c r="B153" s="1">
         <v>34023</v>
       </c>
-      <c r="C153" s="1"/>
+      <c r="C153" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
@@ -2322,7 +2632,9 @@
       <c r="B154" s="1">
         <v>34772</v>
       </c>
-      <c r="C154" s="1"/>
+      <c r="C154" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
@@ -2331,7 +2643,9 @@
       <c r="B155" s="1">
         <v>29911</v>
       </c>
-      <c r="C155" s="1"/>
+      <c r="C155" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
@@ -2340,7 +2654,9 @@
       <c r="B156" s="1">
         <v>32495</v>
       </c>
-      <c r="C156" s="1"/>
+      <c r="C156" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
@@ -2349,7 +2665,9 @@
       <c r="B157" s="1">
         <v>27821</v>
       </c>
-      <c r="C157" s="1"/>
+      <c r="C157" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
@@ -2358,7 +2676,9 @@
       <c r="B158" s="1">
         <v>36158</v>
       </c>
-      <c r="C158" s="1"/>
+      <c r="C158" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
@@ -2367,7 +2687,9 @@
       <c r="B159" s="1">
         <v>25790</v>
       </c>
-      <c r="C159" s="1"/>
+      <c r="C159" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
@@ -2376,7 +2698,9 @@
       <c r="B160" s="1">
         <v>35012</v>
       </c>
-      <c r="C160" s="1"/>
+      <c r="C160" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
@@ -2385,7 +2709,9 @@
       <c r="B161" s="1">
         <v>34521</v>
       </c>
-      <c r="C161" s="1"/>
+      <c r="C161" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
@@ -2394,7 +2720,9 @@
       <c r="B162" s="1">
         <v>33621</v>
       </c>
-      <c r="C162" s="1"/>
+      <c r="C162" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
@@ -2403,7 +2731,9 @@
       <c r="B163" s="1">
         <v>33789</v>
       </c>
-      <c r="C163" s="1"/>
+      <c r="C163" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -2412,7 +2742,9 @@
       <c r="B164" s="1">
         <v>29322</v>
       </c>
-      <c r="C164" s="1"/>
+      <c r="C164" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -2421,7 +2753,9 @@
       <c r="B165" s="1">
         <v>31025</v>
       </c>
-      <c r="C165" s="1"/>
+      <c r="C165" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -2430,7 +2764,9 @@
       <c r="B166" s="1">
         <v>33177</v>
       </c>
-      <c r="C166" s="1"/>
+      <c r="C166" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
@@ -2439,7 +2775,9 @@
       <c r="B167" s="1">
         <v>35305</v>
       </c>
-      <c r="C167" s="1"/>
+      <c r="C167" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
@@ -2448,7 +2786,9 @@
       <c r="B168" s="1">
         <v>34968</v>
       </c>
-      <c r="C168" s="1"/>
+      <c r="C168" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
@@ -2457,6 +2797,9 @@
       <c r="B169" s="1">
         <v>34047</v>
       </c>
+      <c r="C169" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
@@ -2465,7 +2808,9 @@
       <c r="B170" s="1">
         <v>35350</v>
       </c>
-      <c r="C170" s="1"/>
+      <c r="C170" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
@@ -2474,7 +2819,9 @@
       <c r="B171" s="1">
         <v>34103</v>
       </c>
-      <c r="C171" s="1"/>
+      <c r="C171" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
@@ -2483,7 +2830,9 @@
       <c r="B172" s="1">
         <v>34691</v>
       </c>
-      <c r="C172" s="1"/>
+      <c r="C172" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -2492,7 +2841,9 @@
       <c r="B173" s="1">
         <v>31465</v>
       </c>
-      <c r="C173" s="1"/>
+      <c r="C173" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
@@ -2501,7 +2852,9 @@
       <c r="B174" s="1">
         <v>36684</v>
       </c>
-      <c r="C174" s="1"/>
+      <c r="C174" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
@@ -2510,7 +2863,9 @@
       <c r="B175" s="1">
         <v>36611</v>
       </c>
-      <c r="C175" s="1"/>
+      <c r="C175" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -2519,7 +2874,9 @@
       <c r="B176" s="1">
         <v>33574</v>
       </c>
-      <c r="C176" s="1"/>
+      <c r="C176" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
@@ -2528,7 +2885,9 @@
       <c r="B177" s="1">
         <v>35195</v>
       </c>
-      <c r="C177" s="1"/>
+      <c r="C177" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
@@ -2537,7 +2896,9 @@
       <c r="B178" s="1">
         <v>35509</v>
       </c>
-      <c r="C178" s="1"/>
+      <c r="C178" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
@@ -2546,7 +2907,9 @@
       <c r="B179" s="1">
         <v>31337</v>
       </c>
-      <c r="C179" s="1"/>
+      <c r="C179" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
@@ -2555,7 +2918,9 @@
       <c r="B180" s="1">
         <v>33133</v>
       </c>
-      <c r="C180" s="1"/>
+      <c r="C180" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
@@ -2564,7 +2929,9 @@
       <c r="B181" s="1">
         <v>35951</v>
       </c>
-      <c r="C181" s="1"/>
+      <c r="C181" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
@@ -2573,7 +2940,9 @@
       <c r="B182" s="1">
         <v>36106</v>
       </c>
-      <c r="C182" s="1"/>
+      <c r="C182" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
@@ -2582,6 +2951,9 @@
       <c r="B183" s="1">
         <v>33648</v>
       </c>
+      <c r="C183" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
@@ -2590,6 +2962,9 @@
       <c r="B184" s="1">
         <v>31854</v>
       </c>
+      <c r="C184" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
@@ -2597,6 +2972,9 @@
       </c>
       <c r="B185" s="1">
         <v>33212</v>
+      </c>
+      <c r="C185" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
